--- a/Dataset/user_contact.xlsx
+++ b/Dataset/user_contact.xlsx
@@ -24,66 +24,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>0905 123 456</t>
-  </si>
-  <si>
-    <t>0937 456 789</t>
-  </si>
-  <si>
-    <t>0968 321 654</t>
-  </si>
-  <si>
-    <t>0912 987 654</t>
-  </si>
-  <si>
-    <t>0987 654 321</t>
-  </si>
-  <si>
-    <t>0923 123 789</t>
-  </si>
-  <si>
-    <t>0945 678 912</t>
-  </si>
-  <si>
-    <t>0978 234 567</t>
-  </si>
-  <si>
-    <t>0907 876 543</t>
-  </si>
-  <si>
-    <t>0936 543 210</t>
-  </si>
-  <si>
-    <t>0962 345 678</t>
-  </si>
-  <si>
-    <t>0918 765 432</t>
-  </si>
-  <si>
-    <t>0981 234 567</t>
-  </si>
-  <si>
-    <t>0928 654 321</t>
-  </si>
-  <si>
-    <t>0949 876 543</t>
-  </si>
-  <si>
-    <t>0973 210 987</t>
-  </si>
-  <si>
-    <t>0909 543 678</t>
-  </si>
-  <si>
-    <t>0935 678 123</t>
-  </si>
-  <si>
-    <t>0964 432 109</t>
-  </si>
-  <si>
-    <t>0917 890 123</t>
-  </si>
-  <si>
     <t>contact_email</t>
   </si>
   <si>
@@ -211,6 +151,66 @@
   </si>
   <si>
     <t>https://facebook.com/haianh9999</t>
+  </si>
+  <si>
+    <t>0905123456</t>
+  </si>
+  <si>
+    <t>0937456789</t>
+  </si>
+  <si>
+    <t>0968321654</t>
+  </si>
+  <si>
+    <t>0912987654</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>0923123789</t>
+  </si>
+  <si>
+    <t>0945678912</t>
+  </si>
+  <si>
+    <t>0978234567</t>
+  </si>
+  <si>
+    <t>0907876543</t>
+  </si>
+  <si>
+    <t>0936543210</t>
+  </si>
+  <si>
+    <t>0962345678</t>
+  </si>
+  <si>
+    <t>0918765432</t>
+  </si>
+  <si>
+    <t>0981234567</t>
+  </si>
+  <si>
+    <t>0928654321</t>
+  </si>
+  <si>
+    <t>0949876543</t>
+  </si>
+  <si>
+    <t>0973210987</t>
+  </si>
+  <si>
+    <t>0909543678</t>
+  </si>
+  <si>
+    <t>0935678123</t>
+  </si>
+  <si>
+    <t>0964432109</t>
+  </si>
+  <si>
+    <t>0917890123</t>
   </si>
 </sst>
 </file>
@@ -320,9 +320,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,6 +328,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -623,301 +623,301 @@
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="4">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
         <v>20</v>
       </c>
     </row>

--- a/Dataset/user_contact.xlsx
+++ b/Dataset/user_contact.xlsx
@@ -153,9 +153,6 @@
     <t>https://facebook.com/haianh9999</t>
   </si>
   <si>
-    <t>0905123456</t>
-  </si>
-  <si>
     <t>0937456789</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>0917890123</t>
+  </si>
+  <si>
+    <t>0905123457</t>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,14 +614,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -758,7 +758,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>21</v>
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -786,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>25</v>
@@ -800,7 +800,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>27</v>
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>29</v>
@@ -828,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>31</v>
@@ -842,7 +842,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>
@@ -856,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>35</v>
@@ -870,7 +870,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
@@ -884,7 +884,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>39</v>
@@ -898,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>41</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
